--- a/move_out.xlsx
+++ b/move_out.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fasai\OneDrive\Desktop\Fasai\Year3\2nd semester\bus int sys\2nd_group_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fasai\OneDrive\Desktop\Fasai\Year3\2nd semester\bus int sys\2nd_group_work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3E3E2-7618-4926-877C-7AA1FFE74CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B5508E-94DD-4B31-A507-23B29DD6A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ที่มา" sheetId="6" r:id="rId1"/>
-    <sheet name="กรุงเทพ" sheetId="1" r:id="rId2"/>
+    <sheet name="กรุงเทพมหานคร" sheetId="1" r:id="rId2"/>
     <sheet name="นครราชสีมา" sheetId="2" r:id="rId3"/>
     <sheet name="อุบลราชธานี" sheetId="3" r:id="rId4"/>
     <sheet name="ขอนแก่น" sheetId="4" r:id="rId5"/>
@@ -953,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1857,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9DE82D-FF11-4577-A725-5AE73DE159BC}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/move_out.xlsx
+++ b/move_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fasai\OneDrive\Desktop\Fasai\Year3\2nd semester\bus int sys\2nd_group_work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B5508E-94DD-4B31-A507-23B29DD6A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379D440-449D-472B-825C-03A6F8D2C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ที่มา" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>สถิติจำนวนการย้ายออก</t>
   </si>
@@ -118,7 +118,10 @@
     <t>https://stat.bora.dopa.go.th/stat/statnew/statMONTH/statmonth/#/mainpage</t>
   </si>
   <si>
-    <t>as of 02/11/2024</t>
+    <t>as of 11/02/2024</t>
+  </si>
+  <si>
+    <t>สถิติประชากรทางการทะเบียนราษฎร(รายเดือน)</t>
   </si>
 </sst>
 </file>
@@ -926,14 +929,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F023AFE2-AA83-4B7F-A86A-14D174981B99}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
@@ -953,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
